--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ntf3</t>
+  </si>
+  <si>
+    <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntf3</t>
-  </si>
-  <si>
-    <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H2">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I2">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J2">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N2">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q2">
-        <v>1.035841411872</v>
+        <v>2.351285553275</v>
       </c>
       <c r="R2">
-        <v>9.322572706847998</v>
+        <v>21.161569979475</v>
       </c>
       <c r="S2">
-        <v>0.01051370970233512</v>
+        <v>0.08993645900340086</v>
       </c>
       <c r="T2">
-        <v>0.01051370970233512</v>
+        <v>0.08993645900340086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H3">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I3">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J3">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.216364</v>
       </c>
       <c r="O3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q3">
-        <v>33.22906119147244</v>
+        <v>19.26890271927066</v>
       </c>
       <c r="R3">
-        <v>299.061550723252</v>
+        <v>173.420124473436</v>
       </c>
       <c r="S3">
-        <v>0.3372723845988135</v>
+        <v>0.7370337801116583</v>
       </c>
       <c r="T3">
-        <v>0.3372723845988135</v>
+        <v>0.7370337801116583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H4">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I4">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J4">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N4">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q4">
-        <v>0.06874949261399999</v>
+        <v>0.04637291915333333</v>
       </c>
       <c r="R4">
-        <v>0.6187454335259999</v>
+        <v>0.4173562723799999</v>
       </c>
       <c r="S4">
-        <v>0.0006978019986864043</v>
+        <v>0.001773759948676894</v>
       </c>
       <c r="T4">
-        <v>0.0006978019986864041</v>
+        <v>0.001773759948676894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H5">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I5">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J5">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N5">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q5">
-        <v>29.22494373013945</v>
+        <v>2.788551029230333</v>
       </c>
       <c r="R5">
-        <v>263.024493571255</v>
+        <v>25.096959263073</v>
       </c>
       <c r="S5">
-        <v>0.2966309040401002</v>
+        <v>0.1066618237712334</v>
       </c>
       <c r="T5">
-        <v>0.2966309040401001</v>
+        <v>0.1066618237712334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.787013</v>
       </c>
       <c r="I6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J6">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N6">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O6">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P6">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q6">
-        <v>0.04147873315199999</v>
+        <v>0.1623673403416667</v>
       </c>
       <c r="R6">
-        <v>0.373308598368</v>
+        <v>1.461306063075</v>
       </c>
       <c r="S6">
-        <v>0.0004210059128574796</v>
+        <v>0.006210536031146891</v>
       </c>
       <c r="T6">
-        <v>0.0004210059128574795</v>
+        <v>0.006210536031146891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.787013</v>
       </c>
       <c r="I7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J7">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>15.216364</v>
       </c>
       <c r="O7">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P7">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q7">
         <v>1.330608475636889</v>
@@ -883,10 +883,10 @@
         <v>11.975476280732</v>
       </c>
       <c r="S7">
-        <v>0.01350557245537275</v>
+        <v>0.05089565342329921</v>
       </c>
       <c r="T7">
-        <v>0.01350557245537275</v>
+        <v>0.05089565342329922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,10 +915,10 @@
         <v>0.787013</v>
       </c>
       <c r="I8">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J8">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N8">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O8">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P8">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q8">
-        <v>0.002752971473999999</v>
+        <v>0.003202268451111111</v>
       </c>
       <c r="R8">
-        <v>0.024776743266</v>
+        <v>0.02882041606</v>
       </c>
       <c r="S8">
-        <v>2.794244617439783E-05</v>
+        <v>0.0001224864776080026</v>
       </c>
       <c r="T8">
-        <v>2.794244617439783E-05</v>
+        <v>0.0001224864776080027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.787013</v>
       </c>
       <c r="I9">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J9">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N9">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O9">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P9">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q9">
-        <v>1.170269530133889</v>
+        <v>0.1925625806667778</v>
       </c>
       <c r="R9">
-        <v>10.532425771205</v>
+        <v>1.733063226001</v>
       </c>
       <c r="S9">
-        <v>0.01187814463903306</v>
+        <v>0.007365501232976451</v>
       </c>
       <c r="T9">
-        <v>0.01187814463903306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.341617</v>
-      </c>
-      <c r="H10">
-        <v>10.024851</v>
-      </c>
-      <c r="I10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.158112</v>
-      </c>
-      <c r="N10">
-        <v>0.474336</v>
-      </c>
-      <c r="O10">
-        <v>0.01629742442243621</v>
-      </c>
-      <c r="P10">
-        <v>0.01629742442243621</v>
-      </c>
-      <c r="Q10">
-        <v>0.528349747104</v>
-      </c>
-      <c r="R10">
-        <v>4.755147723936</v>
-      </c>
-      <c r="S10">
-        <v>0.005362708807243613</v>
-      </c>
-      <c r="T10">
-        <v>0.005362708807243611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>3.341617</v>
-      </c>
-      <c r="H11">
-        <v>10.024851</v>
-      </c>
-      <c r="I11">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J11">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.072121333333333</v>
-      </c>
-      <c r="N11">
-        <v>15.216364</v>
-      </c>
-      <c r="O11">
-        <v>0.5228098695318911</v>
-      </c>
-      <c r="P11">
-        <v>0.5228098695318911</v>
-      </c>
-      <c r="Q11">
-        <v>16.94908687352933</v>
-      </c>
-      <c r="R11">
-        <v>152.541781861764</v>
-      </c>
-      <c r="S11">
-        <v>0.1720319124777049</v>
-      </c>
-      <c r="T11">
-        <v>0.1720319124777049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>3.341617</v>
-      </c>
-      <c r="H12">
-        <v>10.024851</v>
-      </c>
-      <c r="I12">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J12">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.010494</v>
-      </c>
-      <c r="N12">
-        <v>0.031482</v>
-      </c>
-      <c r="O12">
-        <v>0.001081671042609325</v>
-      </c>
-      <c r="P12">
-        <v>0.001081671042609325</v>
-      </c>
-      <c r="Q12">
-        <v>0.03506692879799999</v>
-      </c>
-      <c r="R12">
-        <v>0.315602359182</v>
-      </c>
-      <c r="S12">
-        <v>0.0003559265977485229</v>
-      </c>
-      <c r="T12">
-        <v>0.0003559265977485229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>3.341617</v>
-      </c>
-      <c r="H13">
-        <v>10.024851</v>
-      </c>
-      <c r="I13">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J13">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.460928333333334</v>
-      </c>
-      <c r="N13">
-        <v>13.382785</v>
-      </c>
-      <c r="O13">
-        <v>0.4598110350030633</v>
-      </c>
-      <c r="P13">
-        <v>0.4598110350030633</v>
-      </c>
-      <c r="Q13">
-        <v>14.90671395444834</v>
-      </c>
-      <c r="R13">
-        <v>134.160425590035</v>
-      </c>
-      <c r="S13">
-        <v>0.1513019863239301</v>
-      </c>
-      <c r="T13">
-        <v>0.1513019863239301</v>
+        <v>0.007365501232976452</v>
       </c>
     </row>
   </sheetData>
